--- a/idea.xlsx
+++ b/idea.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTI\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTI\airlineproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64BA8A6-C047-407A-856C-89F294E47DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD147DDD-E158-44C7-BD19-CF2CD4E41D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C8F18CAC-0BE5-4ABB-B493-55B4C75130AC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
   <si>
     <t>Flight Table</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Primary key</t>
   </si>
   <si>
-    <t>seat_id</t>
-  </si>
-  <si>
     <t>id of flight</t>
   </si>
   <si>
@@ -286,10 +283,16 @@
     <t>number of the seat</t>
   </si>
   <si>
-    <t>id of the seat</t>
-  </si>
-  <si>
     <t>id of the admin</t>
+  </si>
+  <si>
+    <t>seat_type</t>
+  </si>
+  <si>
+    <t>varchar(40)</t>
+  </si>
+  <si>
+    <t>it says whether it is business set/economy seat</t>
   </si>
 </sst>
 </file>
@@ -657,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BC24FB-B2F2-4327-B53F-8F4C92D8F150}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -699,7 +702,7 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -713,7 +716,7 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -727,7 +730,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -741,7 +744,7 @@
         <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -755,7 +758,7 @@
         <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -769,7 +772,7 @@
         <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -783,7 +786,7 @@
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -797,7 +800,7 @@
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -816,7 +819,7 @@
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -827,7 +830,7 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -841,7 +844,7 @@
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -855,7 +858,7 @@
         <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -869,7 +872,7 @@
         <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -880,7 +883,7 @@
         <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -891,7 +894,7 @@
         <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -905,7 +908,7 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -919,7 +922,7 @@
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
@@ -933,7 +936,7 @@
         <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -952,7 +955,7 @@
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -966,7 +969,7 @@
         <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -985,7 +988,7 @@
         <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -999,7 +1002,7 @@
         <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1013,7 +1016,7 @@
         <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
@@ -1027,7 +1030,7 @@
         <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1041,7 +1044,7 @@
         <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
@@ -1055,7 +1058,7 @@
         <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1074,7 +1077,7 @@
         <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
@@ -1085,7 +1088,7 @@
         <v>47</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1096,7 +1099,7 @@
         <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1107,7 +1110,7 @@
         <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
@@ -1118,7 +1121,7 @@
         <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
@@ -1137,21 +1140,21 @@
         <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
         <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/idea.xlsx
+++ b/idea.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTI\airlineproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD147DDD-E158-44C7-BD19-CF2CD4E41D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073B9294-0A46-4772-ACCA-350B9C6E1D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C8F18CAC-0BE5-4ABB-B493-55B4C75130AC}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
   <si>
     <t>Flight Table</t>
   </si>
@@ -100,9 +100,6 @@
     <t>user_password</t>
   </si>
   <si>
-    <t>user_newPassword</t>
-  </si>
-  <si>
     <t>AccountType Table</t>
   </si>
   <si>
@@ -169,9 +166,6 @@
     <t>varchar(12)</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>foreign key</t>
   </si>
   <si>
@@ -229,9 +223,6 @@
     <t>password of the user</t>
   </si>
   <si>
-    <t>newPassword of the user</t>
-  </si>
-  <si>
     <t>id of the account</t>
   </si>
   <si>
@@ -259,9 +250,6 @@
     <t>which seat number has booked</t>
   </si>
   <si>
-    <t>id of the payment</t>
-  </si>
-  <si>
     <t>how many seats booked</t>
   </si>
   <si>
@@ -292,7 +280,25 @@
     <t>varchar(40)</t>
   </si>
   <si>
-    <t>it says whether it is business set/economy seat</t>
+    <t>it says whether it is business set/economy seat.</t>
+  </si>
+  <si>
+    <t>Booking status</t>
+  </si>
+  <si>
+    <t>booking_status</t>
+  </si>
+  <si>
+    <t>booking_no</t>
+  </si>
+  <si>
+    <t>if no is 1 booked &amp; no is 2 cancelled</t>
+  </si>
+  <si>
+    <t>it represents whether ticket booked or not</t>
+  </si>
+  <si>
+    <t>whether ticket is booked/cancelled</t>
   </si>
 </sst>
 </file>
@@ -658,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BC24FB-B2F2-4327-B53F-8F4C92D8F150}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -688,7 +694,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -696,13 +702,13 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -710,13 +716,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -724,13 +730,13 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -738,13 +744,13 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -752,13 +758,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -766,13 +772,13 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -780,13 +786,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -794,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -813,13 +819,13 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -827,10 +833,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -838,13 +844,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -852,13 +858,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -866,13 +872,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -880,10 +886,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -891,10 +897,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -902,46 +908,46 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="s">
         <v>35</v>
       </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
-        <v>22</v>
+      <c r="D24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -949,212 +955,236 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s">
         <v>35</v>
       </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B29" s="1" t="s">
-        <v>25</v>
+      <c r="D29" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B37" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
         <v>48</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B45" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
